--- a/public/sample_uploads/portfolio_income.xlsx
+++ b/public/sample_uploads/portfolio_income.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseem Karmali\Desktop\bulk files with notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D435BAB-AFEB-4757-A017-3FC4282ED4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8F0B10-D5B4-438E-B0A5-6C6B92CD9F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -24,6 +33,259 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{FE4A4D9C-CE38-498A-8B31-24C0DBC1DA68}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mandatory: Fund name as recorded on CapHive</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{3BD99B45-1934-496F-AED2-AB7718352E55}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mandatory: Portfolio Company name as recorded on CapHive</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{3E512572-B19A-4FB5-A8D4-301905C6F08C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory in dd/mm/yyyy format</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A9344473-CF72-453F-8509-7BFEBA1E35DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{D79EE14D-5724-46AF-83EC-6929AF5DA96A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+-Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{03245511-A513-4A10-BBB9-F934BD07029C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pool / CoInvest</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{7D13669D-A2E4-4AC8-8F82-C9835E60DDD4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Applicable if for CoInvest</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{D8613426-BD5A-43E6-85EB-2B1AD0F043C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory
+-As per SEBI reporting requirements</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{29805756-4084-4236-A5D7-9799CFA6F357}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory
+-As per SEBI reporting requirements</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{1F43627D-F125-4CD3-96EA-01A92B934F8D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory
+-As per SEBI reporting requirements</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
@@ -78,26 +340,26 @@
     <t>Fund *</t>
   </si>
   <si>
+    <t>Income distribution for 2019</t>
+  </si>
+  <si>
+    <t>Income distribution for 2020</t>
+  </si>
+  <si>
+    <t>Income distribution for 2021</t>
+  </si>
+  <si>
+    <t>Portfolio Company *</t>
+  </si>
+  <si>
     <t>Type *</t>
-  </si>
-  <si>
-    <t>Income distribution for 2019</t>
-  </si>
-  <si>
-    <t>Income distribution for 2020</t>
-  </si>
-  <si>
-    <t>Income distribution for 2021</t>
-  </si>
-  <si>
-    <t>Portfolio Company *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -117,6 +379,36 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -126,12 +418,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -140,9 +441,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,178 +762,186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.46484375" customWidth="1"/>
-    <col min="2" max="2" width="22.1328125" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="1020" max="1020" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.9296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="1015" width="8.53125" style="2"/>
+    <col min="1016" max="1016" width="9.1328125" style="2" customWidth="1"/>
+    <col min="1017" max="16384" width="8.53125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43831</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="3">
+        <v>44197</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44562</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3">
         <v>43831</v>
       </c>
-      <c r="D2">
+      <c r="D5" s="2">
         <v>2000000</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44197</v>
-      </c>
-      <c r="D3">
-        <v>2000000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44562</v>
-      </c>
-      <c r="D4">
-        <v>1000000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43831</v>
-      </c>
-      <c r="D5">
-        <v>2000000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{5C3980EF-7B40-4ABA-A683-E09F20DFF138}">
+      <formula1>"Pool,CoInvest"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/sample_uploads/portfolio_income.xlsx
+++ b/public/sample_uploads/portfolio_income.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseem Karmali\Desktop\bulk files with notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8F0B10-D5B4-438E-B0A5-6C6B92CD9F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDD8AC5-DF10-41B3-93F3-15726F07BFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Amount *</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>Type *</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Instrument</t>
   </si>
 </sst>
 </file>
@@ -763,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -786,7 +792,7 @@
     <col min="1017" max="16384" width="8.53125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -817,8 +823,14 @@
       <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -847,7 +859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -876,7 +888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -908,7 +920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>

--- a/public/sample_uploads/portfolio_income.xlsx
+++ b/public/sample_uploads/portfolio_income.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseem Karmali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDD8AC5-DF10-41B3-93F3-15726F07BFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEF1515-EC96-4DFB-BA9D-A4FE9A1FB399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{D8613426-BD5A-43E6-85EB-2B1AD0F043C1}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{03264531-5020-4873-AAF0-E9ABB422599F}">
       <text>
         <r>
           <rPr>
@@ -215,7 +215,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -224,15 +224,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
--Mandatory
--As per SEBI reporting requirements</t>
+-Optional</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{29805756-4084-4236-A5D7-9799CFA6F357}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00025E97-2F1E-4D72-9753-8CF0D32D3DCA}">
       <text>
         <r>
           <rPr>
@@ -240,7 +239,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -249,36 +248,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
--Mandatory
--As per SEBI reporting requirements</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{1F43627D-F125-4CD3-96EA-01A92B934F8D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
--Mandatory
--As per SEBI reporting requirements</t>
+-Mandatory</t>
         </r>
       </text>
     </comment>
@@ -287,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Amount *</t>
   </si>
@@ -298,15 +271,6 @@
     <t>Folio No</t>
   </si>
   <si>
-    <t>Category *</t>
-  </si>
-  <si>
-    <t>Sub Category *</t>
-  </si>
-  <si>
-    <t>Investment Domicile *</t>
-  </si>
-  <si>
     <t>SAAS Fund</t>
   </si>
   <si>
@@ -316,15 +280,6 @@
     <t>Pool</t>
   </si>
   <si>
-    <t>Unlisted</t>
-  </si>
-  <si>
-    <t>Equity</t>
-  </si>
-  <si>
-    <t>Domestic</t>
-  </si>
-  <si>
     <t>CoInvest</t>
   </si>
   <si>
@@ -358,14 +313,14 @@
     <t>Tag</t>
   </si>
   <si>
-    <t>Instrument</t>
+    <t>Instrument *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -414,6 +369,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -769,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -780,27 +748,26 @@
     <col min="1" max="1" width="10.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.73046875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.06640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.9296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="1015" width="8.53125" style="2"/>
-    <col min="1016" max="1016" width="9.1328125" style="2" customWidth="1"/>
-    <col min="1017" max="16384" width="8.53125" style="2"/>
+    <col min="6" max="6" width="10" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.9296875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.9296875" style="2" customWidth="1"/>
+    <col min="10" max="1012" width="8.53125" style="2"/>
+    <col min="1013" max="1013" width="9.1328125" style="2" customWidth="1"/>
+    <col min="1014" max="16384" width="8.53125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -809,33 +776,24 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>43831</v>
@@ -844,27 +802,18 @@
         <v>2000000</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3">
         <v>44197</v>
@@ -873,27 +822,18 @@
         <v>2000000</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3">
         <v>44562</v>
@@ -902,30 +842,21 @@
         <v>1000000</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3">
         <v>43831</v>
@@ -934,16 +865,7 @@
         <v>2000000</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/portfolio_income.xlsx
+++ b/public/sample_uploads/portfolio_income.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseem Karmali\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEF1515-EC96-4DFB-BA9D-A4FE9A1FB399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC27FF0-5E4E-4A84-B46A-69236F0AD9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{03245511-A513-4A10-BBB9-F934BD07029C}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{03264531-5020-4873-AAF0-E9ABB422599F}">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -176,62 +176,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Pool / CoInvest</t>
+-Optional</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{7D13669D-A2E4-4AC8-8F82-C9835E60DDD4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Applicable if for CoInvest</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{03264531-5020-4873-AAF0-E9ABB422599F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
--Optional</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00025E97-2F1E-4D72-9753-8CF0D32D3DCA}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00025E97-2F1E-4D72-9753-8CF0D32D3DCA}">
       <text>
         <r>
           <rPr>
@@ -260,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Amount *</t>
   </si>
@@ -268,24 +220,12 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Folio No</t>
-  </si>
-  <si>
     <t>SAAS Fund</t>
   </si>
   <si>
     <t>Apple</t>
   </si>
   <si>
-    <t>Pool</t>
-  </si>
-  <si>
-    <t>CoInvest</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>KLAC</t>
   </si>
   <si>
@@ -305,9 +245,6 @@
   </si>
   <si>
     <t>Portfolio Company *</t>
-  </si>
-  <si>
-    <t>Type *</t>
   </si>
   <si>
     <t>Tag</t>
@@ -320,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -363,11 +300,6 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -415,12 +347,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -750,24 +681,22 @@
     <col min="3" max="3" width="14.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.06640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.9296875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.9296875" style="2" customWidth="1"/>
-    <col min="10" max="1012" width="8.53125" style="2"/>
-    <col min="1013" max="1013" width="9.1328125" style="2" customWidth="1"/>
-    <col min="1014" max="16384" width="8.53125" style="2"/>
+    <col min="6" max="6" width="6.9296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.9296875" style="2" customWidth="1"/>
+    <col min="8" max="1010" width="8.53125" style="2"/>
+    <col min="1011" max="1011" width="9.1328125" style="2" customWidth="1"/>
+    <col min="1012" max="16384" width="8.53125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -776,24 +705,18 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="3">
         <v>43831</v>
@@ -802,18 +725,15 @@
         <v>2000000</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C3" s="3">
         <v>44197</v>
@@ -822,18 +742,15 @@
         <v>2000000</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C4" s="3">
         <v>44562</v>
@@ -842,21 +759,15 @@
         <v>1000000</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3">
         <v>43831</v>
@@ -864,16 +775,8 @@
       <c r="D5" s="2">
         <v>2000000</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{5C3980EF-7B40-4ABA-A683-E09F20DFF138}">
-      <formula1>"Pool,CoInvest"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <legacyDrawing r:id="rId1"/>
